--- a/7/1/1/4/3/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/3/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
   <si>
     <t>Serie</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4407,10 +4410,10 @@
         <v>96.09999999999999</v>
       </c>
       <c r="M50">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="N50">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="O50">
         <v>101.1</v>
@@ -4475,7 +4478,7 @@
         <v>85.7</v>
       </c>
       <c r="K51">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L51">
         <v>96</v>
@@ -4484,7 +4487,7 @@
         <v>96.7</v>
       </c>
       <c r="N51">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="O51">
         <v>99.59999999999999</v>
@@ -4549,7 +4552,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="K52">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="L52">
         <v>92.40000000000001</v>
@@ -4588,7 +4591,7 @@
         <v>88.8</v>
       </c>
       <c r="X52">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4670,7 +4673,7 @@
         <v>73</v>
       </c>
       <c r="B54">
-        <v>89.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C54">
         <v>86.59999999999999</v>
@@ -4697,7 +4700,7 @@
         <v>89.5</v>
       </c>
       <c r="K54">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="L54">
         <v>84.59999999999999</v>
@@ -4706,7 +4709,7 @@
         <v>81.3</v>
       </c>
       <c r="N54">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="O54">
         <v>67.90000000000001</v>
@@ -4780,7 +4783,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="N55">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="O55">
         <v>83.2</v>
@@ -4842,10 +4845,10 @@
         <v>95.90000000000001</v>
       </c>
       <c r="J56">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K56">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="L56">
         <v>90.2</v>
@@ -4904,7 +4907,7 @@
         <v>104.7</v>
       </c>
       <c r="F57">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="G57">
         <v>84.5</v>
@@ -4990,7 +4993,7 @@
         <v>93.40000000000001</v>
       </c>
       <c r="J58">
-        <v>88.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="K58">
         <v>101.2</v>
@@ -4999,10 +5002,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="M58">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="N58">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="O58">
         <v>99.5</v>
@@ -5076,7 +5079,7 @@
         <v>102.4</v>
       </c>
       <c r="N59">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="O59">
         <v>103.8</v>
@@ -5144,7 +5147,7 @@
         <v>103.2</v>
       </c>
       <c r="L60">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="M60">
         <v>108.8</v>
@@ -5212,10 +5215,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="J61">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="K61">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="L61">
         <v>107.8</v>
@@ -5224,7 +5227,7 @@
         <v>110.7</v>
       </c>
       <c r="N61">
-        <v>89.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="O61">
         <v>122.8</v>
@@ -5286,7 +5289,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="J62">
-        <v>90.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K62">
         <v>101</v>
@@ -5354,7 +5357,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="H63">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I63">
         <v>94.3</v>
@@ -5434,7 +5437,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="J64">
-        <v>92.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K64">
         <v>97.7</v>
@@ -5505,7 +5508,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="I65">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="J65">
         <v>93.8</v>
@@ -5520,7 +5523,7 @@
         <v>111.9</v>
       </c>
       <c r="N65">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O65">
         <v>117.6</v>
@@ -5582,10 +5585,10 @@
         <v>95.2</v>
       </c>
       <c r="J66">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="K66">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="L66">
         <v>105.2</v>
@@ -5594,7 +5597,7 @@
         <v>106.7</v>
       </c>
       <c r="N66">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="O66">
         <v>112.3</v>
@@ -5659,7 +5662,7 @@
         <v>95.8</v>
       </c>
       <c r="K67">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="L67">
         <v>104.6</v>
@@ -5668,7 +5671,7 @@
         <v>105.4</v>
       </c>
       <c r="N67">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="O67">
         <v>109.4</v>
@@ -5730,7 +5733,7 @@
         <v>98.5</v>
       </c>
       <c r="J68">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="K68">
         <v>100.1</v>
@@ -5878,10 +5881,10 @@
         <v>97.90000000000001</v>
       </c>
       <c r="J70">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="K70">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="L70">
         <v>97.5</v>
@@ -5890,16 +5893,16 @@
         <v>97.40000000000001</v>
       </c>
       <c r="N70">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="O70">
         <v>100.7</v>
       </c>
       <c r="P70">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="Q70">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="R70">
         <v>95.40000000000001</v>
@@ -5908,13 +5911,13 @@
         <v>95.5</v>
       </c>
       <c r="T70">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="U70">
         <v>101.3</v>
       </c>
       <c r="V70">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="W70">
         <v>94.8</v>
@@ -5955,7 +5958,7 @@
         <v>99</v>
       </c>
       <c r="K71">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L71">
         <v>97.3</v>
@@ -5970,7 +5973,7 @@
         <v>97</v>
       </c>
       <c r="P71">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="Q71">
         <v>98.90000000000001</v>
@@ -6005,7 +6008,7 @@
         <v>101</v>
       </c>
       <c r="C72">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D72">
         <v>100.2</v>
@@ -6014,7 +6017,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="F72">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="G72">
         <v>100.4</v>
@@ -6029,7 +6032,7 @@
         <v>100.7</v>
       </c>
       <c r="K72">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="L72">
         <v>101.5</v>
@@ -6047,7 +6050,7 @@
         <v>102.7</v>
       </c>
       <c r="Q72">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="R72">
         <v>102</v>
@@ -6065,7 +6068,7 @@
         <v>102.2</v>
       </c>
       <c r="W72">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="X72">
         <v>100.8</v>
@@ -6177,7 +6180,7 @@
         <v>104.6</v>
       </c>
       <c r="K74">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="L74">
         <v>109.3</v>
@@ -6186,25 +6189,25 @@
         <v>109.9</v>
       </c>
       <c r="N74">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="O74">
         <v>104.5</v>
       </c>
       <c r="P74">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="Q74">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="R74">
         <v>110.8</v>
       </c>
       <c r="S74">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="T74">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="U74">
         <v>114.9</v>
@@ -6213,7 +6216,7 @@
         <v>110.6</v>
       </c>
       <c r="W74">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="X74">
         <v>103.1</v>
@@ -6236,7 +6239,7 @@
         <v>105.5</v>
       </c>
       <c r="F75">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="G75">
         <v>103.7</v>
@@ -6248,25 +6251,25 @@
         <v>107.8</v>
       </c>
       <c r="J75">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="K75">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="L75">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="M75">
         <v>110.1</v>
       </c>
       <c r="N75">
-        <v>121</v>
+        <v>120.9</v>
       </c>
       <c r="O75">
         <v>105.2</v>
       </c>
       <c r="P75">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="Q75">
         <v>107.6</v>
@@ -6310,22 +6313,22 @@
         <v>106.6</v>
       </c>
       <c r="F76">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="G76">
         <v>105.1</v>
       </c>
       <c r="H76">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="I76">
         <v>109.6</v>
       </c>
       <c r="J76">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="K76">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="L76">
         <v>111.6</v>
@@ -6343,7 +6346,7 @@
         <v>119.5</v>
       </c>
       <c r="Q76">
-        <v>108.7</v>
+        <v>108.9</v>
       </c>
       <c r="R76">
         <v>114.2</v>
@@ -6396,10 +6399,10 @@
         <v>111.4</v>
       </c>
       <c r="J77">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="K77">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="L77">
         <v>111.3</v>
@@ -6417,7 +6420,7 @@
         <v>120.2</v>
       </c>
       <c r="Q77">
-        <v>110.8</v>
+        <v>110.6</v>
       </c>
       <c r="R77">
         <v>114.7</v>
@@ -6432,7 +6435,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="V77">
-        <v>117.1</v>
+        <v>117.2</v>
       </c>
       <c r="W77">
         <v>118.7</v>
@@ -6470,13 +6473,13 @@
         <v>114.6</v>
       </c>
       <c r="J78">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="K78">
-        <v>122</v>
+        <v>121.8</v>
       </c>
       <c r="L78">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="M78">
         <v>109.4</v>
@@ -6488,19 +6491,19 @@
         <v>103.4</v>
       </c>
       <c r="P78">
-        <v>118.1</v>
+        <v>118.2</v>
       </c>
       <c r="Q78">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="R78">
         <v>111.6</v>
       </c>
       <c r="S78">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="T78">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="U78">
         <v>72.8</v>
@@ -6509,7 +6512,7 @@
         <v>115.9</v>
       </c>
       <c r="W78">
-        <v>119</v>
+        <v>118.9</v>
       </c>
       <c r="X78">
         <v>109.8</v>
@@ -6520,7 +6523,7 @@
         <v>98</v>
       </c>
       <c r="B79">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="C79">
         <v>111.3</v>
@@ -6532,7 +6535,7 @@
         <v>112</v>
       </c>
       <c r="F79">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="G79">
         <v>109.6</v>
@@ -6544,10 +6547,10 @@
         <v>114</v>
       </c>
       <c r="J79">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="K79">
-        <v>120.2</v>
+        <v>120.4</v>
       </c>
       <c r="L79">
         <v>105.2</v>
@@ -6562,10 +6565,10 @@
         <v>96.7</v>
       </c>
       <c r="P79">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="Q79">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="R79">
         <v>109.3</v>
@@ -6583,7 +6586,7 @@
         <v>113.1</v>
       </c>
       <c r="W79">
-        <v>117.8</v>
+        <v>117.9</v>
       </c>
       <c r="X79">
         <v>110.8</v>
@@ -6597,7 +6600,7 @@
         <v>114.4</v>
       </c>
       <c r="C80">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="D80">
         <v>112.4</v>
@@ -6612,16 +6615,16 @@
         <v>110.8</v>
       </c>
       <c r="H80">
-        <v>112.6</v>
+        <v>112.8</v>
       </c>
       <c r="I80">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="J80">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="K80">
-        <v>128.6</v>
+        <v>128.8</v>
       </c>
       <c r="L80">
         <v>107.4</v>
@@ -6639,7 +6642,7 @@
         <v>121.1</v>
       </c>
       <c r="Q80">
-        <v>115.9</v>
+        <v>116.2</v>
       </c>
       <c r="R80">
         <v>116.7</v>
@@ -6654,7 +6657,7 @@
         <v>71.8</v>
       </c>
       <c r="V80">
-        <v>121.8</v>
+        <v>121.7</v>
       </c>
       <c r="W80">
         <v>123.8</v>
@@ -6686,16 +6689,16 @@
         <v>112.5</v>
       </c>
       <c r="H81">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I81">
         <v>120.1</v>
       </c>
       <c r="J81">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="K81">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="L81">
         <v>106.6</v>
@@ -6713,10 +6716,10 @@
         <v>119.3</v>
       </c>
       <c r="Q81">
-        <v>118</v>
+        <v>117.7</v>
       </c>
       <c r="R81">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="S81">
         <v>112.8</v>
@@ -6760,16 +6763,16 @@
         <v>113.3</v>
       </c>
       <c r="H82">
-        <v>113.1</v>
+        <v>112.9</v>
       </c>
       <c r="I82">
         <v>121.4</v>
       </c>
       <c r="J82">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="K82">
-        <v>132.7</v>
+        <v>132.4</v>
       </c>
       <c r="L82">
         <v>108.6</v>
@@ -6784,10 +6787,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="P82">
-        <v>119.3</v>
+        <v>119.4</v>
       </c>
       <c r="Q82">
-        <v>118.8</v>
+        <v>118.6</v>
       </c>
       <c r="R82">
         <v>112.4</v>
@@ -6796,7 +6799,7 @@
         <v>110.1</v>
       </c>
       <c r="T82">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="U82">
         <v>54.2</v>
@@ -6834,16 +6837,16 @@
         <v>113.9</v>
       </c>
       <c r="H83">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="I83">
         <v>120</v>
       </c>
       <c r="J83">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="K83">
-        <v>127.6</v>
+        <v>127.9</v>
       </c>
       <c r="L83">
         <v>105.4</v>
@@ -6852,16 +6855,16 @@
         <v>103.7</v>
       </c>
       <c r="N83">
-        <v>130.8</v>
+        <v>130.7</v>
       </c>
       <c r="O83">
         <v>92.59999999999999</v>
       </c>
       <c r="P83">
-        <v>116.2</v>
+        <v>116.1</v>
       </c>
       <c r="Q83">
-        <v>116.8</v>
+        <v>117</v>
       </c>
       <c r="R83">
         <v>111</v>
@@ -6908,16 +6911,16 @@
         <v>114.9</v>
       </c>
       <c r="H84">
-        <v>121.2</v>
+        <v>121.4</v>
       </c>
       <c r="I84">
         <v>119.3</v>
       </c>
       <c r="J84">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="K84">
-        <v>123.6</v>
+        <v>123.8</v>
       </c>
       <c r="L84">
         <v>106.4</v>
@@ -6926,7 +6929,7 @@
         <v>105.4</v>
       </c>
       <c r="N84">
-        <v>121.3</v>
+        <v>121.4</v>
       </c>
       <c r="O84">
         <v>97</v>
@@ -6935,13 +6938,13 @@
         <v>116</v>
       </c>
       <c r="Q84">
-        <v>113.1</v>
+        <v>113.4</v>
       </c>
       <c r="R84">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="S84">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="T84">
         <v>103.7</v>
@@ -6950,7 +6953,7 @@
         <v>66.3</v>
       </c>
       <c r="V84">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="W84">
         <v>124.6</v>
@@ -6982,7 +6985,7 @@
         <v>115.4</v>
       </c>
       <c r="H85">
-        <v>121.8</v>
+        <v>121.7</v>
       </c>
       <c r="I85">
         <v>120.1</v>
@@ -6991,7 +6994,7 @@
         <v>117.9</v>
       </c>
       <c r="K85">
-        <v>123.9</v>
+        <v>123.8</v>
       </c>
       <c r="L85">
         <v>113.1</v>
@@ -7009,7 +7012,7 @@
         <v>120.5</v>
       </c>
       <c r="Q85">
-        <v>116.3</v>
+        <v>115.9</v>
       </c>
       <c r="R85">
         <v>110.4</v>
@@ -7027,7 +7030,7 @@
         <v>113.7</v>
       </c>
       <c r="W85">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="X85">
         <v>118.5</v>
@@ -7041,7 +7044,7 @@
         <v>118.4</v>
       </c>
       <c r="C86">
-        <v>118.2</v>
+        <v>118.1</v>
       </c>
       <c r="D86">
         <v>117.7</v>
@@ -7053,19 +7056,19 @@
         <v>118.8</v>
       </c>
       <c r="G86">
-        <v>117.4</v>
+        <v>117.5</v>
       </c>
       <c r="H86">
-        <v>120.5</v>
+        <v>119.9</v>
       </c>
       <c r="I86">
         <v>120.8</v>
       </c>
       <c r="J86">
-        <v>118.7</v>
+        <v>118.9</v>
       </c>
       <c r="K86">
-        <v>124.8</v>
+        <v>124.4</v>
       </c>
       <c r="L86">
         <v>113.5</v>
@@ -7080,25 +7083,25 @@
         <v>108.1</v>
       </c>
       <c r="P86">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="Q86">
-        <v>115.3</v>
+        <v>114.7</v>
       </c>
       <c r="R86">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="S86">
         <v>109.5</v>
       </c>
       <c r="T86">
-        <v>102.2</v>
+        <v>102.5</v>
       </c>
       <c r="U86">
         <v>79.59999999999999</v>
       </c>
       <c r="V86">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="W86">
         <v>124</v>
@@ -7115,7 +7118,7 @@
         <v>119.9</v>
       </c>
       <c r="C87">
-        <v>118.9</v>
+        <v>119</v>
       </c>
       <c r="D87">
         <v>118.2</v>
@@ -7130,16 +7133,16 @@
         <v>118</v>
       </c>
       <c r="H87">
-        <v>122.5</v>
+        <v>123</v>
       </c>
       <c r="I87">
         <v>122.3</v>
       </c>
       <c r="J87">
-        <v>120.4</v>
+        <v>120.2</v>
       </c>
       <c r="K87">
-        <v>125.8</v>
+        <v>126.3</v>
       </c>
       <c r="L87">
         <v>118.3</v>
@@ -7148,25 +7151,25 @@
         <v>119</v>
       </c>
       <c r="N87">
-        <v>136.5</v>
+        <v>136.4</v>
       </c>
       <c r="O87">
         <v>114.5</v>
       </c>
       <c r="P87">
-        <v>123.5</v>
+        <v>123.4</v>
       </c>
       <c r="Q87">
-        <v>113.7</v>
+        <v>114.4</v>
       </c>
       <c r="R87">
         <v>112.8</v>
       </c>
       <c r="S87">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="T87">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="U87">
         <v>76.8</v>
@@ -7175,10 +7178,10 @@
         <v>115.4</v>
       </c>
       <c r="W87">
-        <v>128</v>
+        <v>128.1</v>
       </c>
       <c r="X87">
-        <v>121.3</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7186,10 +7189,10 @@
         <v>107</v>
       </c>
       <c r="B88">
-        <v>120.2</v>
+        <v>120.1</v>
       </c>
       <c r="C88">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="D88">
         <v>118.6</v>
@@ -7204,16 +7207,16 @@
         <v>118.5</v>
       </c>
       <c r="H88">
-        <v>124.9</v>
+        <v>125.2</v>
       </c>
       <c r="I88">
         <v>121.5</v>
       </c>
       <c r="J88">
-        <v>120.9</v>
+        <v>120.8</v>
       </c>
       <c r="K88">
-        <v>122.8</v>
+        <v>123</v>
       </c>
       <c r="L88">
         <v>119.9</v>
@@ -7228,31 +7231,31 @@
         <v>120.6</v>
       </c>
       <c r="P88">
-        <v>119.3</v>
+        <v>119.2</v>
       </c>
       <c r="Q88">
-        <v>111.9</v>
+        <v>112.3</v>
       </c>
       <c r="R88">
         <v>110</v>
       </c>
       <c r="S88">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="T88">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="U88">
         <v>73.59999999999999</v>
       </c>
       <c r="V88">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="W88">
-        <v>122.5</v>
+        <v>122.6</v>
       </c>
       <c r="X88">
-        <v>123</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7263,37 +7266,37 @@
         <v>120.4</v>
       </c>
       <c r="C89">
-        <v>120.1</v>
+        <v>120</v>
       </c>
       <c r="D89">
         <v>119.5</v>
       </c>
       <c r="E89">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="F89">
-        <v>120.5</v>
+        <v>120.6</v>
       </c>
       <c r="G89">
         <v>120.2</v>
       </c>
       <c r="H89">
-        <v>122.8</v>
+        <v>122.6</v>
       </c>
       <c r="I89">
         <v>122.2</v>
       </c>
       <c r="J89">
-        <v>122.3</v>
+        <v>122.4</v>
       </c>
       <c r="K89">
-        <v>122.1</v>
+        <v>121.9</v>
       </c>
       <c r="L89">
         <v>119.6</v>
       </c>
       <c r="M89">
-        <v>120.9</v>
+        <v>121</v>
       </c>
       <c r="N89">
         <v>122.4</v>
@@ -7302,10 +7305,10 @@
         <v>122.1</v>
       </c>
       <c r="P89">
-        <v>119.8</v>
+        <v>119.9</v>
       </c>
       <c r="Q89">
-        <v>111</v>
+        <v>110.5</v>
       </c>
       <c r="R89">
         <v>109.8</v>
@@ -7314,7 +7317,7 @@
         <v>108.2</v>
       </c>
       <c r="T89">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="U89">
         <v>85.5</v>
@@ -7337,7 +7340,7 @@
         <v>121.4</v>
       </c>
       <c r="C90">
-        <v>122</v>
+        <v>121.7</v>
       </c>
       <c r="D90">
         <v>120.6</v>
@@ -7349,55 +7352,55 @@
         <v>122.3</v>
       </c>
       <c r="G90">
-        <v>121</v>
+        <v>121.1</v>
       </c>
       <c r="H90">
-        <v>128.5</v>
+        <v>127</v>
       </c>
       <c r="I90">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="J90">
-        <v>122.1</v>
+        <v>122.4</v>
       </c>
       <c r="K90">
-        <v>120.4</v>
+        <v>119.8</v>
       </c>
       <c r="L90">
-        <v>115</v>
+        <v>114.9</v>
       </c>
       <c r="M90">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
       <c r="N90">
-        <v>113.4</v>
+        <v>113.3</v>
       </c>
       <c r="O90">
         <v>115.5</v>
       </c>
       <c r="P90">
-        <v>118.5</v>
+        <v>118.7</v>
       </c>
       <c r="Q90">
-        <v>110.9</v>
+        <v>109.7</v>
       </c>
       <c r="R90">
-        <v>107.8</v>
+        <v>108</v>
       </c>
       <c r="S90">
-        <v>106.2</v>
+        <v>106.4</v>
       </c>
       <c r="T90">
-        <v>97.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="U90">
         <v>86</v>
       </c>
       <c r="V90">
-        <v>109.4</v>
+        <v>109.6</v>
       </c>
       <c r="W90">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="X90">
         <v>123.4</v>
@@ -7411,7 +7414,7 @@
         <v>123</v>
       </c>
       <c r="C91">
-        <v>122.4</v>
+        <v>122.7</v>
       </c>
       <c r="D91">
         <v>121.6</v>
@@ -7423,58 +7426,58 @@
         <v>123.1</v>
       </c>
       <c r="G91">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="H91">
-        <v>125.9</v>
+        <v>127.5</v>
       </c>
       <c r="I91">
-        <v>123.7</v>
+        <v>123.8</v>
       </c>
       <c r="J91">
-        <v>124.5</v>
+        <v>124.2</v>
       </c>
       <c r="K91">
-        <v>122.6</v>
+        <v>123.3</v>
       </c>
       <c r="L91">
-        <v>117</v>
+        <v>117.1</v>
       </c>
       <c r="M91">
         <v>117.9</v>
       </c>
       <c r="N91">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="O91">
         <v>113.8</v>
       </c>
       <c r="P91">
-        <v>125.2</v>
+        <v>125.1</v>
       </c>
       <c r="Q91">
-        <v>111.1</v>
+        <v>112.7</v>
       </c>
       <c r="R91">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="S91">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="T91">
-        <v>102.3</v>
+        <v>102</v>
       </c>
       <c r="U91">
         <v>93.2</v>
       </c>
       <c r="V91">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="W91">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="X91">
-        <v>124.3</v>
+        <v>124.4</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7482,10 +7485,10 @@
         <v>111</v>
       </c>
       <c r="B92">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="C92">
-        <v>123.6</v>
+        <v>123.7</v>
       </c>
       <c r="D92">
         <v>122.8</v>
@@ -7494,25 +7497,25 @@
         <v>110.3</v>
       </c>
       <c r="F92">
-        <v>124.1</v>
+        <v>124.2</v>
       </c>
       <c r="G92">
         <v>124</v>
       </c>
       <c r="H92">
-        <v>127.6</v>
+        <v>128</v>
       </c>
       <c r="I92">
         <v>127.5</v>
       </c>
       <c r="J92">
-        <v>126.6</v>
+        <v>126.5</v>
       </c>
       <c r="K92">
-        <v>129.3</v>
+        <v>129.6</v>
       </c>
       <c r="L92">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="M92">
         <v>122.5</v>
@@ -7524,25 +7527,25 @@
         <v>116.2</v>
       </c>
       <c r="P92">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="Q92">
-        <v>116.4</v>
+        <v>116.9</v>
       </c>
       <c r="R92">
-        <v>119.2</v>
+        <v>119.1</v>
       </c>
       <c r="S92">
-        <v>117.9</v>
+        <v>117.8</v>
       </c>
       <c r="T92">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="U92">
         <v>103.1</v>
       </c>
       <c r="V92">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="W92">
         <v>127.6</v>
@@ -7559,7 +7562,7 @@
         <v>125.4</v>
       </c>
       <c r="C93">
-        <v>123.8</v>
+        <v>123.7</v>
       </c>
       <c r="D93">
         <v>122.1</v>
@@ -7568,22 +7571,22 @@
         <v>109.8</v>
       </c>
       <c r="F93">
-        <v>124.2</v>
+        <v>124.3</v>
       </c>
       <c r="G93">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="H93">
-        <v>132.1</v>
+        <v>131.6</v>
       </c>
       <c r="I93">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="J93">
-        <v>128.2</v>
+        <v>128.3</v>
       </c>
       <c r="K93">
-        <v>131.8</v>
+        <v>131.6</v>
       </c>
       <c r="L93">
         <v>123.3</v>
@@ -7592,16 +7595,16 @@
         <v>124.1</v>
       </c>
       <c r="N93">
-        <v>119.2</v>
+        <v>119.3</v>
       </c>
       <c r="O93">
         <v>119.6</v>
       </c>
       <c r="P93">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="Q93">
-        <v>118.8</v>
+        <v>118</v>
       </c>
       <c r="R93">
         <v>122.3</v>
@@ -7610,7 +7613,7 @@
         <v>121.3</v>
       </c>
       <c r="T93">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="U93">
         <v>105.2</v>
@@ -7619,7 +7622,7 @@
         <v>124</v>
       </c>
       <c r="W93">
-        <v>129.2</v>
+        <v>129.1</v>
       </c>
       <c r="X93">
         <v>125.4</v>
@@ -7630,70 +7633,70 @@
         <v>113</v>
       </c>
       <c r="B94">
-        <v>124.4</v>
+        <v>124.6</v>
       </c>
       <c r="C94">
-        <v>123.5</v>
+        <v>123</v>
       </c>
       <c r="D94">
-        <v>121.3</v>
+        <v>121.2</v>
       </c>
       <c r="E94">
         <v>109</v>
       </c>
       <c r="F94">
-        <v>123.1</v>
+        <v>123</v>
       </c>
       <c r="G94">
-        <v>122.1</v>
+        <v>122.2</v>
       </c>
       <c r="H94">
-        <v>134.2</v>
+        <v>131.3</v>
       </c>
       <c r="I94">
-        <v>129.4</v>
+        <v>129.3</v>
       </c>
       <c r="J94">
-        <v>128.2</v>
+        <v>128.5</v>
       </c>
       <c r="K94">
-        <v>131.8</v>
+        <v>130.9</v>
       </c>
       <c r="L94">
-        <v>121.6</v>
+        <v>121.3</v>
       </c>
       <c r="M94">
         <v>122.2</v>
       </c>
       <c r="N94">
-        <v>134.5</v>
+        <v>134.4</v>
       </c>
       <c r="O94">
         <v>116.4</v>
       </c>
       <c r="P94">
-        <v>129.8</v>
+        <v>130</v>
       </c>
       <c r="Q94">
-        <v>118.5</v>
+        <v>116</v>
       </c>
       <c r="R94">
-        <v>117.4</v>
+        <v>117.7</v>
       </c>
       <c r="S94">
-        <v>115.7</v>
+        <v>116</v>
       </c>
       <c r="T94">
-        <v>105</v>
+        <v>105.9</v>
       </c>
       <c r="U94">
         <v>90.7</v>
       </c>
       <c r="V94">
-        <v>119.7</v>
+        <v>120</v>
       </c>
       <c r="W94">
-        <v>128.7</v>
+        <v>128.5</v>
       </c>
       <c r="X94">
         <v>125.5</v>
@@ -7707,7 +7710,7 @@
         <v>125.9</v>
       </c>
       <c r="C95">
-        <v>123.7</v>
+        <v>124.3</v>
       </c>
       <c r="D95">
         <v>122.6</v>
@@ -7722,55 +7725,55 @@
         <v>123.5</v>
       </c>
       <c r="H95">
-        <v>128.6</v>
+        <v>132</v>
       </c>
       <c r="I95">
-        <v>130.4</v>
+        <v>130.5</v>
       </c>
       <c r="J95">
-        <v>130.2</v>
+        <v>129.9</v>
       </c>
       <c r="K95">
-        <v>130.8</v>
+        <v>131.7</v>
       </c>
       <c r="L95">
-        <v>121.3</v>
+        <v>121.6</v>
       </c>
       <c r="M95">
         <v>122.1</v>
       </c>
       <c r="N95">
-        <v>130.6</v>
+        <v>130.5</v>
       </c>
       <c r="O95">
         <v>115.8</v>
       </c>
       <c r="P95">
-        <v>131.3</v>
+        <v>131.2</v>
       </c>
       <c r="Q95">
-        <v>116.6</v>
+        <v>119.5</v>
       </c>
       <c r="R95">
-        <v>119.1</v>
+        <v>118.9</v>
       </c>
       <c r="S95">
-        <v>117.4</v>
+        <v>117.2</v>
       </c>
       <c r="T95">
-        <v>106.6</v>
+        <v>106</v>
       </c>
       <c r="U95">
         <v>101.4</v>
       </c>
       <c r="V95">
-        <v>120.1</v>
+        <v>119.9</v>
       </c>
       <c r="W95">
-        <v>130.6</v>
+        <v>130.7</v>
       </c>
       <c r="X95">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -7781,7 +7784,7 @@
         <v>126.8</v>
       </c>
       <c r="C96">
-        <v>125.1</v>
+        <v>125.2</v>
       </c>
       <c r="D96">
         <v>123.6</v>
@@ -7796,16 +7799,16 @@
         <v>124.2</v>
       </c>
       <c r="H96">
-        <v>132.2</v>
+        <v>132.7</v>
       </c>
       <c r="I96">
         <v>132.4</v>
       </c>
       <c r="J96">
-        <v>131.4</v>
+        <v>131.3</v>
       </c>
       <c r="K96">
-        <v>134.4</v>
+        <v>134.7</v>
       </c>
       <c r="L96">
         <v>123.4</v>
@@ -7814,37 +7817,37 @@
         <v>123.5</v>
       </c>
       <c r="N96">
-        <v>130.4</v>
+        <v>130.5</v>
       </c>
       <c r="O96">
         <v>118.3</v>
       </c>
       <c r="P96">
-        <v>131.5</v>
+        <v>131.4</v>
       </c>
       <c r="Q96">
-        <v>123.4</v>
+        <v>124.2</v>
       </c>
       <c r="R96">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="S96">
-        <v>120.5</v>
+        <v>120.4</v>
       </c>
       <c r="T96">
-        <v>114.1</v>
+        <v>113.8</v>
       </c>
       <c r="U96">
         <v>96.90000000000001</v>
       </c>
       <c r="V96">
-        <v>124.3</v>
+        <v>124.1</v>
       </c>
       <c r="W96">
-        <v>137.3</v>
+        <v>137.5</v>
       </c>
       <c r="X96">
-        <v>126.9</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -7855,7 +7858,7 @@
         <v>129.2</v>
       </c>
       <c r="C97">
-        <v>127.6</v>
+        <v>127.4</v>
       </c>
       <c r="D97">
         <v>124.4</v>
@@ -7870,34 +7873,34 @@
         <v>123.9</v>
       </c>
       <c r="H97">
-        <v>143.4</v>
+        <v>142.2</v>
       </c>
       <c r="I97">
         <v>136</v>
       </c>
       <c r="J97">
-        <v>132.8</v>
+        <v>133</v>
       </c>
       <c r="K97">
-        <v>142</v>
+        <v>141.7</v>
       </c>
       <c r="L97">
-        <v>128.9</v>
+        <v>128.8</v>
       </c>
       <c r="M97">
-        <v>129.2</v>
+        <v>129.3</v>
       </c>
       <c r="N97">
-        <v>144.9</v>
+        <v>145</v>
       </c>
       <c r="O97">
         <v>123.9</v>
       </c>
       <c r="P97">
-        <v>135.2</v>
+        <v>135.3</v>
       </c>
       <c r="Q97">
-        <v>127.4</v>
+        <v>126.3</v>
       </c>
       <c r="R97">
         <v>128.2</v>
@@ -7906,7 +7909,7 @@
         <v>125.5</v>
       </c>
       <c r="T97">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="U97">
         <v>101.8</v>
@@ -7915,7 +7918,7 @@
         <v>129.3</v>
       </c>
       <c r="W97">
-        <v>146.5</v>
+        <v>146.4</v>
       </c>
       <c r="X97">
         <v>129.1</v>
@@ -7926,10 +7929,10 @@
         <v>117</v>
       </c>
       <c r="B98">
-        <v>131.2</v>
+        <v>131.4</v>
       </c>
       <c r="C98">
-        <v>129.8</v>
+        <v>128.9</v>
       </c>
       <c r="D98">
         <v>125.8</v>
@@ -7938,58 +7941,58 @@
         <v>112.5</v>
       </c>
       <c r="F98">
-        <v>129.5</v>
+        <v>129.3</v>
       </c>
       <c r="G98">
         <v>125.3</v>
       </c>
       <c r="H98">
-        <v>148.3</v>
+        <v>143.5</v>
       </c>
       <c r="I98">
-        <v>139.7</v>
+        <v>139.6</v>
       </c>
       <c r="J98">
-        <v>134.3</v>
+        <v>134.7</v>
       </c>
       <c r="K98">
-        <v>150.7</v>
+        <v>149.5</v>
       </c>
       <c r="L98">
-        <v>134.2</v>
+        <v>133.9</v>
       </c>
       <c r="M98">
-        <v>134.8</v>
+        <v>134.9</v>
       </c>
       <c r="N98">
-        <v>149.4</v>
+        <v>149.3</v>
       </c>
       <c r="O98">
         <v>128.3</v>
       </c>
       <c r="P98">
-        <v>143.1</v>
+        <v>143.3</v>
       </c>
       <c r="Q98">
-        <v>131.2</v>
+        <v>127.3</v>
       </c>
       <c r="R98">
-        <v>134.1</v>
+        <v>134.5</v>
       </c>
       <c r="S98">
-        <v>131.2</v>
+        <v>131.7</v>
       </c>
       <c r="T98">
-        <v>117.9</v>
+        <v>119.6</v>
       </c>
       <c r="U98">
         <v>90.59999999999999</v>
       </c>
       <c r="V98">
-        <v>138.2</v>
+        <v>138.7</v>
       </c>
       <c r="W98">
-        <v>154.3</v>
+        <v>154</v>
       </c>
       <c r="X98">
         <v>131.1</v>
@@ -8000,10 +8003,10 @@
         <v>118</v>
       </c>
       <c r="B99">
-        <v>134.8</v>
+        <v>134.7</v>
       </c>
       <c r="C99">
-        <v>130.5</v>
+        <v>131.8</v>
       </c>
       <c r="D99">
         <v>125.9</v>
@@ -8018,25 +8021,25 @@
         <v>124.4</v>
       </c>
       <c r="H99">
-        <v>150.2</v>
+        <v>156.6</v>
       </c>
       <c r="I99">
-        <v>139.7</v>
+        <v>139.9</v>
       </c>
       <c r="J99">
-        <v>134.3</v>
+        <v>133.8</v>
       </c>
       <c r="K99">
-        <v>150.4</v>
+        <v>151.7</v>
       </c>
       <c r="L99">
-        <v>143.2</v>
+        <v>143.6</v>
       </c>
       <c r="M99">
         <v>143.9</v>
       </c>
       <c r="N99">
-        <v>152.2</v>
+        <v>152</v>
       </c>
       <c r="O99">
         <v>147.5</v>
@@ -8045,28 +8048,28 @@
         <v>140.3</v>
       </c>
       <c r="Q99">
-        <v>138.2</v>
+        <v>143.7</v>
       </c>
       <c r="R99">
-        <v>131.2</v>
+        <v>130.8</v>
       </c>
       <c r="S99">
-        <v>128.1</v>
+        <v>127.7</v>
       </c>
       <c r="T99">
-        <v>115.5</v>
+        <v>114.4</v>
       </c>
       <c r="U99">
         <v>71.90000000000001</v>
       </c>
       <c r="V99">
-        <v>136.2</v>
+        <v>135.8</v>
       </c>
       <c r="W99">
-        <v>154.1</v>
+        <v>154.4</v>
       </c>
       <c r="X99">
-        <v>138.6</v>
+        <v>138.8</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8074,10 +8077,10 @@
         <v>119</v>
       </c>
       <c r="B100">
-        <v>134.2</v>
+        <v>134</v>
       </c>
       <c r="C100">
-        <v>133.7</v>
+        <v>133.8</v>
       </c>
       <c r="D100">
         <v>127.2</v>
@@ -8086,31 +8089,31 @@
         <v>117.1</v>
       </c>
       <c r="F100">
-        <v>131.1</v>
+        <v>131.2</v>
       </c>
       <c r="G100">
         <v>125.3</v>
       </c>
       <c r="H100">
-        <v>164.3</v>
+        <v>164.8</v>
       </c>
       <c r="I100">
-        <v>139</v>
+        <v>139.1</v>
       </c>
       <c r="J100">
-        <v>134.6</v>
+        <v>134.4</v>
       </c>
       <c r="K100">
-        <v>146.1</v>
+        <v>146.5</v>
       </c>
       <c r="L100">
-        <v>147.8</v>
+        <v>148</v>
       </c>
       <c r="M100">
-        <v>149.1</v>
+        <v>149.2</v>
       </c>
       <c r="N100">
-        <v>151.9</v>
+        <v>152</v>
       </c>
       <c r="O100">
         <v>161.3</v>
@@ -8119,28 +8122,28 @@
         <v>131.5</v>
       </c>
       <c r="Q100">
-        <v>136</v>
+        <v>137.4</v>
       </c>
       <c r="R100">
-        <v>128.5</v>
+        <v>128.3</v>
       </c>
       <c r="S100">
-        <v>125.7</v>
+        <v>125.5</v>
       </c>
       <c r="T100">
-        <v>114.9</v>
+        <v>114.4</v>
       </c>
       <c r="U100">
         <v>78.8</v>
       </c>
       <c r="V100">
-        <v>132.6</v>
+        <v>132.4</v>
       </c>
       <c r="W100">
-        <v>148.8</v>
+        <v>149</v>
       </c>
       <c r="X100">
-        <v>139.7</v>
+        <v>139.6</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8151,7 +8154,7 @@
         <v>134.3</v>
       </c>
       <c r="C101">
-        <v>133.6</v>
+        <v>133.2</v>
       </c>
       <c r="D101">
         <v>128.9</v>
@@ -8160,46 +8163,46 @@
         <v>119.7</v>
       </c>
       <c r="F101">
-        <v>132.8</v>
+        <v>132.9</v>
       </c>
       <c r="G101">
-        <v>126.9</v>
+        <v>126.8</v>
       </c>
       <c r="H101">
-        <v>155.9</v>
+        <v>153.9</v>
       </c>
       <c r="I101">
         <v>138.1</v>
       </c>
       <c r="J101">
-        <v>135.6</v>
+        <v>135.7</v>
       </c>
       <c r="K101">
-        <v>142.9</v>
+        <v>142.6</v>
       </c>
       <c r="L101">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="M101">
         <v>150.3</v>
       </c>
       <c r="N101">
-        <v>143.4</v>
+        <v>143.5</v>
       </c>
       <c r="O101">
         <v>169.5</v>
       </c>
       <c r="P101">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="Q101">
-        <v>138.6</v>
+        <v>137.1</v>
       </c>
       <c r="R101">
         <v>126.1</v>
       </c>
       <c r="S101">
-        <v>123.5</v>
+        <v>123.6</v>
       </c>
       <c r="T101">
         <v>118.1</v>
@@ -8211,7 +8214,7 @@
         <v>129.8</v>
       </c>
       <c r="W101">
-        <v>144.5</v>
+        <v>144.4</v>
       </c>
       <c r="X101">
         <v>140.7</v>
@@ -8222,73 +8225,147 @@
         <v>121</v>
       </c>
       <c r="B102">
-        <v>133.9</v>
+        <v>134</v>
       </c>
       <c r="C102">
-        <v>135.3</v>
+        <v>134</v>
       </c>
       <c r="D102">
         <v>130.4</v>
       </c>
       <c r="E102">
-        <v>121.7</v>
+        <v>121.8</v>
       </c>
       <c r="F102">
-        <v>134.8</v>
+        <v>134.6</v>
       </c>
       <c r="G102">
-        <v>128</v>
+        <v>128.1</v>
       </c>
       <c r="H102">
-        <v>157.9</v>
+        <v>150.9</v>
       </c>
       <c r="I102">
-        <v>138.9</v>
+        <v>139</v>
       </c>
       <c r="J102">
-        <v>138.1</v>
+        <v>139.1</v>
       </c>
       <c r="K102">
-        <v>141.3</v>
+        <v>140.1</v>
       </c>
       <c r="L102">
-        <v>159.3</v>
+        <v>161.4</v>
       </c>
       <c r="M102">
-        <v>161.1</v>
+        <v>164.1</v>
       </c>
       <c r="N102">
-        <v>119.8</v>
+        <v>123.3</v>
       </c>
       <c r="O102">
-        <v>190.9</v>
+        <v>195</v>
       </c>
       <c r="P102">
-        <v>131.3</v>
+        <v>132.1</v>
       </c>
       <c r="Q102">
-        <v>142.2</v>
+        <v>133.8</v>
       </c>
       <c r="R102">
-        <v>125.8</v>
+        <v>126.6</v>
       </c>
       <c r="S102">
-        <v>123.5</v>
+        <v>124.4</v>
       </c>
       <c r="T102">
-        <v>120</v>
+        <v>120.6</v>
       </c>
       <c r="U102">
-        <v>91.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="V102">
-        <v>128.5</v>
+        <v>129.1</v>
       </c>
       <c r="W102">
-        <v>140.9</v>
+        <v>140.4</v>
       </c>
       <c r="X102">
-        <v>143.5</v>
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103">
+        <v>136.9</v>
+      </c>
+      <c r="C103">
+        <v>134.5</v>
+      </c>
+      <c r="D103">
+        <v>131.4</v>
+      </c>
+      <c r="E103">
+        <v>123.8</v>
+      </c>
+      <c r="F103">
+        <v>135.3</v>
+      </c>
+      <c r="G103">
+        <v>129</v>
+      </c>
+      <c r="H103">
+        <v>149.1</v>
+      </c>
+      <c r="I103">
+        <v>140.4</v>
+      </c>
+      <c r="J103">
+        <v>142.3</v>
+      </c>
+      <c r="K103">
+        <v>139.2</v>
+      </c>
+      <c r="L103">
+        <v>164.6</v>
+      </c>
+      <c r="M103">
+        <v>168.6</v>
+      </c>
+      <c r="N103">
+        <v>134.9</v>
+      </c>
+      <c r="O103">
+        <v>197.3</v>
+      </c>
+      <c r="P103">
+        <v>136.2</v>
+      </c>
+      <c r="Q103">
+        <v>126.7</v>
+      </c>
+      <c r="R103">
+        <v>125.9</v>
+      </c>
+      <c r="S103">
+        <v>123.9</v>
+      </c>
+      <c r="T103">
+        <v>123.4</v>
+      </c>
+      <c r="U103">
+        <v>101.1</v>
+      </c>
+      <c r="V103">
+        <v>127.6</v>
+      </c>
+      <c r="W103">
+        <v>137.2</v>
+      </c>
+      <c r="X103">
+        <v>148.2</v>
       </c>
     </row>
   </sheetData>
